--- a/Results/MultivModels_DOnsetMin#11#Max#30_AgeMin#30#Max#100_Target#IOT+death_Std#PowerTransformer_DatasetMaskedByCCI_RegFixed#False_NansRowGroupwise#50_PCAPercVarTh#5/performances_train.xlsx
+++ b/Results/MultivModels_DOnsetMin#11#Max#30_AgeMin#30#Max#100_Target#IOT+death_Std#PowerTransformer_DatasetMaskedByCCI_RegFixed#False_NansRowGroupwise#50_PCAPercVarTh#5/performances_train.xlsx
@@ -503,46 +503,46 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8160651478816944</v>
+        <v>0.8131175059952039</v>
       </c>
       <c r="C4">
-        <v>0.004364780245033728</v>
+        <v>0.003903815581947412</v>
       </c>
       <c r="D4">
-        <v>0.5292329454677873</v>
+        <v>0.5283260534471652</v>
       </c>
       <c r="E4">
-        <v>0.006373647470428345</v>
+        <v>0.00536374811877216</v>
       </c>
       <c r="F4">
-        <v>0.7713888888888889</v>
+        <v>0.77</v>
       </c>
       <c r="G4">
-        <v>0.007000597560810617</v>
+        <v>0.007517383573726222</v>
       </c>
       <c r="H4">
-        <v>0.4031310386771655</v>
+        <v>0.4023898376288066</v>
       </c>
       <c r="I4">
-        <v>0.005890235230515906</v>
+        <v>0.004671789623498346</v>
       </c>
       <c r="J4">
-        <v>0.9221636147346571</v>
+        <v>0.9219164246036897</v>
       </c>
       <c r="K4">
-        <v>0.002496335851626341</v>
+        <v>0.002498588031283333</v>
       </c>
       <c r="L4">
-        <v>0.7028057553956836</v>
+        <v>0.7030935251798561</v>
       </c>
       <c r="M4">
-        <v>0.005465738142171217</v>
+        <v>0.004360382426507381</v>
       </c>
       <c r="N4">
-        <v>0.7169142857142856</v>
+        <v>0.7168571428571429</v>
       </c>
       <c r="O4">
-        <v>0.005175666468248963</v>
+        <v>0.004084536889642165</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -550,46 +550,46 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.823004081632653</v>
+        <v>0.8245163265306121</v>
       </c>
       <c r="C5">
-        <v>0.004635165528511731</v>
+        <v>0.003554810789426099</v>
       </c>
       <c r="D5">
-        <v>0.5336117869726712</v>
+        <v>0.534027831130078</v>
       </c>
       <c r="E5">
-        <v>0.005814986084680562</v>
+        <v>0.005066388994831361</v>
       </c>
       <c r="F5">
-        <v>0.7751428571428572</v>
+        <v>0.7859999999999999</v>
       </c>
       <c r="G5">
-        <v>0.00719159186915963</v>
+        <v>0.006570720696850496</v>
       </c>
       <c r="H5">
-        <v>0.4074037769330691</v>
+        <v>0.4047426201206577</v>
       </c>
       <c r="I5">
-        <v>0.005661257567154521</v>
+        <v>0.00471362141885584</v>
       </c>
       <c r="J5">
-        <v>0.9272637162646358</v>
+        <v>0.9299348008129834</v>
       </c>
       <c r="K5">
-        <v>0.00224313722552838</v>
+        <v>0.002085532689844016</v>
       </c>
       <c r="L5">
-        <v>0.7165714285714284</v>
+        <v>0.71</v>
       </c>
       <c r="M5">
-        <v>0.005789179225560548</v>
+        <v>0.004779832940012718</v>
       </c>
       <c r="N5">
-        <v>0.7282857142857141</v>
+        <v>0.7252000000000001</v>
       </c>
       <c r="O5">
-        <v>0.004923530012234112</v>
+        <v>0.004181062789400558</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -597,46 +597,46 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9041582491582489</v>
+        <v>0.9005050505050504</v>
       </c>
       <c r="C6">
-        <v>0.00490901256267362</v>
+        <v>0.005079237527927383</v>
       </c>
       <c r="D6">
-        <v>0.6404288912419278</v>
+        <v>0.6240580437077168</v>
       </c>
       <c r="E6">
-        <v>0.01315025251238933</v>
+        <v>0.01266082634461574</v>
       </c>
       <c r="F6">
-        <v>0.927272727272727</v>
+        <v>0.9172727272727272</v>
       </c>
       <c r="G6">
-        <v>0.01087752583606139</v>
+        <v>0.01177561602207355</v>
       </c>
       <c r="H6">
-        <v>0.4928899598385422</v>
+        <v>0.4762428907345452</v>
       </c>
       <c r="I6">
-        <v>0.01471467101773516</v>
+        <v>0.01377442054267847</v>
       </c>
       <c r="J6">
-        <v>0.9819261094644383</v>
+        <v>0.9792326120608067</v>
       </c>
       <c r="K6">
-        <v>0.002713218745461266</v>
+        <v>0.00295066410056144</v>
       </c>
       <c r="L6">
-        <v>0.7977777777777777</v>
+        <v>0.7872222222222222</v>
       </c>
       <c r="M6">
-        <v>0.01145040433069477</v>
+        <v>0.01112190158610959</v>
       </c>
       <c r="N6">
-        <v>0.8196923076923077</v>
+        <v>0.8092307692307692</v>
       </c>
       <c r="O6">
-        <v>0.009605206126184096</v>
+        <v>0.009356203858421175</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -644,46 +644,46 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.9216666666666665</v>
+        <v>0.9230471380471379</v>
       </c>
       <c r="C7">
-        <v>0.005487546672622856</v>
+        <v>0.004709339838930404</v>
       </c>
       <c r="D7">
-        <v>0.6857561863293163</v>
+        <v>0.6904996917202963</v>
       </c>
       <c r="E7">
-        <v>0.01770612273469285</v>
+        <v>0.01368493299890361</v>
       </c>
       <c r="F7">
-        <v>0.9390909090909091</v>
+        <v>0.9536363636363635</v>
       </c>
       <c r="G7">
-        <v>0.009947965051456564</v>
+        <v>0.009761194820176899</v>
       </c>
       <c r="H7">
-        <v>0.5453743590119617</v>
+        <v>0.5443474427944142</v>
       </c>
       <c r="I7">
-        <v>0.02001080613009476</v>
+        <v>0.0152450750001093</v>
       </c>
       <c r="J7">
-        <v>0.9848937165250127</v>
+        <v>0.9886630865129353</v>
       </c>
       <c r="K7">
-        <v>0.002529996981203486</v>
+        <v>0.002413668271772806</v>
       </c>
       <c r="L7">
-        <v>0.8298148148148148</v>
+        <v>0.8312962962962962</v>
       </c>
       <c r="M7">
-        <v>0.01291695841981233</v>
+        <v>0.009741299358632993</v>
       </c>
       <c r="N7">
-        <v>0.8483076923076925</v>
+        <v>0.8520000000000002</v>
       </c>
       <c r="O7">
-        <v>0.01158574739701612</v>
+        <v>0.008729366397112859</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -691,46 +691,46 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8449901960784314</v>
+        <v>0.8413921568627452</v>
       </c>
       <c r="C8">
-        <v>0.005811294949094048</v>
+        <v>0.005903517356074417</v>
       </c>
       <c r="D8">
-        <v>0.5168866852760213</v>
+        <v>0.5136195671313106</v>
       </c>
       <c r="E8">
-        <v>0.00770440854669896</v>
+        <v>0.008190707526659624</v>
       </c>
       <c r="F8">
-        <v>0.8154999999999998</v>
+        <v>0.8104999999999998</v>
       </c>
       <c r="G8">
-        <v>0.008884325539233906</v>
+        <v>0.01000043673342688</v>
       </c>
       <c r="H8">
-        <v>0.3790619557049349</v>
+        <v>0.3766149940243137</v>
       </c>
       <c r="I8">
-        <v>0.007139294799773044</v>
+        <v>0.007360643269211098</v>
       </c>
       <c r="J8">
-        <v>0.9530698797061583</v>
+        <v>0.9518002200145301</v>
       </c>
       <c r="K8">
-        <v>0.002285062185925724</v>
+        <v>0.002549785601468013</v>
       </c>
       <c r="L8">
-        <v>0.7356862745098042</v>
+        <v>0.734607843137255</v>
       </c>
       <c r="M8">
-        <v>0.006412763597468896</v>
+        <v>0.006509403515813195</v>
       </c>
       <c r="N8">
-        <v>0.7487704918032785</v>
+        <v>0.7470491803278686</v>
       </c>
       <c r="O8">
-        <v>0.005890803116042842</v>
+        <v>0.006081154655416587</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -738,46 +738,46 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8601481859989779</v>
+        <v>0.8633367399080225</v>
       </c>
       <c r="C9">
-        <v>0.004837773595597006</v>
+        <v>0.005623550108766695</v>
       </c>
       <c r="D9">
-        <v>0.5269631035003308</v>
+        <v>0.5175182710293125</v>
       </c>
       <c r="E9">
-        <v>0.008572986930453941</v>
+        <v>0.009556005675587009</v>
       </c>
       <c r="F9">
-        <v>0.8042105263157892</v>
+        <v>0.7978947368421051</v>
       </c>
       <c r="G9">
-        <v>0.0114091475957061</v>
+        <v>0.01156641675691827</v>
       </c>
       <c r="H9">
-        <v>0.3925859117419537</v>
+        <v>0.3835536954768229</v>
       </c>
       <c r="I9">
-        <v>0.007566685332933976</v>
+        <v>0.008304069213068033</v>
       </c>
       <c r="J9">
-        <v>0.9551465785523877</v>
+        <v>0.953184254242919</v>
       </c>
       <c r="K9">
-        <v>0.002585308402758613</v>
+        <v>0.002761902226707691</v>
       </c>
       <c r="L9">
-        <v>0.7686407766990293</v>
+        <v>0.7612621359223302</v>
       </c>
       <c r="M9">
-        <v>0.005776385559949748</v>
+        <v>0.006049249688568237</v>
       </c>
       <c r="N9">
-        <v>0.7741803278688526</v>
+        <v>0.7669672131147541</v>
       </c>
       <c r="O9">
-        <v>0.005520862949680905</v>
+        <v>0.006212580138998836</v>
       </c>
     </row>
   </sheetData>
